--- a/biology/Botanique/Arabusta/Arabusta.xlsx
+++ b/biology/Botanique/Arabusta/Arabusta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arabusta (Coffea ×arabusta) est un caféier hybride résultant de l'hybridation du caféier robusta (Coffea canephora) et de l'Arabica (Coffea arabica).
 Coffea canephora étant diploïde et Coffea arabica tétraploïde, l'hybridation n'est possible qu'avec des variétés tétraploïdes de Coffea canephora créées pour la circonstance par traitement à la colchicine.
@@ -514,9 +526,11 @@
           <t>Nom scientifique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certains auteurs refusent le nom scientifique Coffea ×arabusta, préférant la formule complète Coffea arabica × Coffea canephora[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains auteurs refusent le nom scientifique Coffea ×arabusta, préférant la formule complète Coffea arabica × Coffea canephora.
 </t>
         </is>
       </c>
